--- a/apoyo/Reporte_tiempos/Reporte_Daniel_Jasso_7-Eleven_Julio_2013.xlsx
+++ b/apoyo/Reporte_tiempos/Reporte_Daniel_Jasso_7-Eleven_Julio_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="440" windowWidth="24560" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Categoría</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,14 @@
   </si>
   <si>
     <t>19/Julio/2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implementación</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25/Julio/2013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -696,14 +704,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14" thickBot="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14" thickBot="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
